--- a/gestão de vulnerabilidades.xlsx
+++ b/gestão de vulnerabilidades.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -449,6 +449,11 @@
           <t>Descrição</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Nível</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -465,6 +470,9 @@
         <is>
           <t>The issue was addressed with improved memory handling. This issue is fixed in macOS Sonoma 14.5, iOS 16.7.8 and iPadOS 16.7.8, iOS 17.5 and iPadOS 17.5, macOS Monterey 12.7.5, watchOS 10.5, tvOS 17.5, macOS Ventura 13.6.7, visionOS 1.2. An app may be able to execute arbitrary code with kernel privileges.</t>
         </is>
+      </c>
+      <c r="D2" t="n">
+        <v>8.4</v>
       </c>
     </row>
   </sheetData>

--- a/gestão de vulnerabilidades.xlsx
+++ b/gestão de vulnerabilidades.xlsx
@@ -4,26 +4,56 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="CVEs" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd"/>
+    <numFmt numFmtId="165" formatCode="yyyy-mm-dd"/>
+    <numFmt numFmtId="166" formatCode="YYYY-MM-DD"/>
+  </numFmts>
+  <fonts count="6">
     <font>
       <name val="Calibri"/>
+      <charset val="1"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="128"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="128"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <charset val="128"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Cambria"/>
+      <charset val="1"/>
+      <family val="0"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -37,7 +67,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -50,21 +80,52 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -137,41 +198,41 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f81bd"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -179,243 +240,135 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:shade val="51000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:shade val="93000"/>
-                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="94000"/>
-                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
-                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -434,22 +387,22 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="3" t="inlineStr">
         <is>
           <t>CVE ID</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Data Publicada</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Descrição</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Nível</t>
         </is>
@@ -461,10 +414,8 @@
           <t>CVE-2024-40771</t>
         </is>
       </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-01-15</t>
-        </is>
+      <c r="B2" s="4" t="n">
+        <v>45672</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -478,4 +429,39 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="E5:E5"/>
+  <sheetViews>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E6" activeCellId="0" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetData>
+    <row r="5" ht="12.8" customHeight="1" s="5">
+      <c r="E5" s="6">
+        <f>COUNTIFS(CVEs!B:B, "&gt;=2025-01-01", CVEs!B:B, "&lt;=2025-01-15")</f>
+        <v/>
+      </c>
+    </row>
+  </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentOddEven="0" differentFirst="0">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;Kffffff&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;KffffffPage &amp;P</oddFooter>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
+  </headerFooter>
+</worksheet>
 </file>